--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H2">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4975540716186</v>
+        <v>43.28121633333333</v>
       </c>
       <c r="N2">
-        <v>11.4975540716186</v>
+        <v>129.843649</v>
       </c>
       <c r="O2">
-        <v>0.274562014763891</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="P2">
-        <v>0.274562014763891</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="Q2">
-        <v>401.8910495368393</v>
+        <v>9373.985256698215</v>
       </c>
       <c r="R2">
-        <v>401.8910495368393</v>
+        <v>84365.86731028394</v>
       </c>
       <c r="S2">
-        <v>0.03318187421643569</v>
+        <v>0.2311886616690939</v>
       </c>
       <c r="T2">
-        <v>0.03318187421643569</v>
+        <v>0.2311886616690939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H3">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.719960352205369</v>
+        <v>9.865038</v>
       </c>
       <c r="N3">
-        <v>9.719960352205369</v>
+        <v>29.595114</v>
       </c>
       <c r="O3">
-        <v>0.2321130112633554</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="P3">
-        <v>0.2321130112633554</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="Q3">
-        <v>339.756181451413</v>
+        <v>2136.601708615744</v>
       </c>
       <c r="R3">
-        <v>339.756181451413</v>
+        <v>19229.4153775417</v>
       </c>
       <c r="S3">
-        <v>0.02805174907520274</v>
+        <v>0.05269456650593873</v>
       </c>
       <c r="T3">
-        <v>0.02805174907520274</v>
+        <v>0.05269456650593871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H4">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>20.6584678802318</v>
+        <v>1.460025</v>
       </c>
       <c r="N4">
-        <v>20.6584678802318</v>
+        <v>4.380075</v>
       </c>
       <c r="O4">
-        <v>0.4933249739727535</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="P4">
-        <v>0.4933249739727535</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="Q4">
-        <v>722.1060485119893</v>
+        <v>316.2169177272</v>
       </c>
       <c r="R4">
-        <v>722.1060485119893</v>
+        <v>2845.9522595448</v>
       </c>
       <c r="S4">
-        <v>0.05962021821651909</v>
+        <v>0.007798792509753453</v>
       </c>
       <c r="T4">
-        <v>0.05962021821651909</v>
+        <v>0.007798792509753452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>158.264630314358</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H5">
-        <v>158.264630314358</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I5">
-        <v>0.5471941601088505</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J5">
-        <v>0.5471941601088505</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4975540716186</v>
+        <v>26.482795</v>
       </c>
       <c r="N5">
-        <v>11.4975540716186</v>
+        <v>79.448385</v>
       </c>
       <c r="O5">
-        <v>0.274562014763891</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="P5">
-        <v>0.274562014763891</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="Q5">
-        <v>1819.656144664059</v>
+        <v>5735.729051010293</v>
       </c>
       <c r="R5">
-        <v>1819.656144664059</v>
+        <v>51621.56145909265</v>
       </c>
       <c r="S5">
-        <v>0.1502387310665212</v>
+        <v>0.1414591005519331</v>
       </c>
       <c r="T5">
-        <v>0.1502387310665212</v>
+        <v>0.1414591005519331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H6">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.719960352205369</v>
+        <v>43.28121633333333</v>
       </c>
       <c r="N6">
-        <v>9.719960352205369</v>
+        <v>129.843649</v>
       </c>
       <c r="O6">
-        <v>0.2321130112633554</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="P6">
-        <v>0.2321130112633554</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="Q6">
-        <v>1538.325931812</v>
+        <v>7009.608265953375</v>
       </c>
       <c r="R6">
-        <v>1538.325931812</v>
+        <v>63086.47439358038</v>
       </c>
       <c r="S6">
-        <v>0.1270108842485879</v>
+        <v>0.1728765204396299</v>
       </c>
       <c r="T6">
-        <v>0.1270108842485879</v>
+        <v>0.1728765204396299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H7">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.6584678802318</v>
+        <v>9.865038</v>
       </c>
       <c r="N7">
-        <v>20.6584678802318</v>
+        <v>29.595114</v>
       </c>
       <c r="O7">
-        <v>0.4933249739727535</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="P7">
-        <v>0.4933249739727535</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="Q7">
-        <v>3269.504781925924</v>
+        <v>1597.691972799012</v>
       </c>
       <c r="R7">
-        <v>3269.504781925924</v>
+        <v>14379.22775519111</v>
       </c>
       <c r="S7">
-        <v>0.2699445447937414</v>
+        <v>0.03940354703320283</v>
       </c>
       <c r="T7">
-        <v>0.2699445447937414</v>
+        <v>0.03940354703320281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.445568277803339</v>
+        <v>161.954974</v>
       </c>
       <c r="H8">
-        <v>0.445568277803339</v>
+        <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J8">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>11.4975540716186</v>
+        <v>1.460025</v>
       </c>
       <c r="N8">
-        <v>11.4975540716186</v>
+        <v>4.380075</v>
       </c>
       <c r="O8">
-        <v>0.274562014763891</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="P8">
-        <v>0.274562014763891</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="Q8">
-        <v>5.122945366641868</v>
+        <v>236.45831091435</v>
       </c>
       <c r="R8">
-        <v>5.122945366641868</v>
+        <v>2128.12479822915</v>
       </c>
       <c r="S8">
-        <v>0.0004229726662723313</v>
+        <v>0.00583172246849449</v>
       </c>
       <c r="T8">
-        <v>0.0004229726662723313</v>
+        <v>0.005831722468494489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.445568277803339</v>
+        <v>161.954974</v>
       </c>
       <c r="H9">
-        <v>0.445568277803339</v>
+        <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J9">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.719960352205369</v>
+        <v>26.482795</v>
       </c>
       <c r="N9">
-        <v>9.719960352205369</v>
+        <v>79.448385</v>
       </c>
       <c r="O9">
-        <v>0.2321130112633554</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="P9">
-        <v>0.2321130112633554</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="Q9">
-        <v>4.330905994448883</v>
+        <v>4289.020375672329</v>
       </c>
       <c r="R9">
-        <v>4.330905994448883</v>
+        <v>38601.18338105097</v>
       </c>
       <c r="S9">
-        <v>0.0003575784484790753</v>
+        <v>0.1057792233900334</v>
       </c>
       <c r="T9">
-        <v>0.0003575784484790753</v>
+        <v>0.1057792233900334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H10">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.6584678802318</v>
+        <v>43.28121633333333</v>
       </c>
       <c r="N10">
-        <v>20.6584678802318</v>
+        <v>129.843649</v>
       </c>
       <c r="O10">
-        <v>0.4933249739727535</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="P10">
-        <v>0.4933249739727535</v>
+        <v>0.533749049291363</v>
       </c>
       <c r="Q10">
-        <v>9.204757955450479</v>
+        <v>19.94412875712111</v>
       </c>
       <c r="R10">
-        <v>9.204757955450479</v>
+        <v>179.49715881409</v>
       </c>
       <c r="S10">
-        <v>0.0007599848790424388</v>
+        <v>0.0004918779269703047</v>
       </c>
       <c r="T10">
-        <v>0.0007599848790424388</v>
+        <v>0.0004918779269703047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>95.5647040097259</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H11">
-        <v>95.5647040097259</v>
+        <v>1.38241</v>
       </c>
       <c r="I11">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J11">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.4975540716186</v>
+        <v>9.865038</v>
       </c>
       <c r="N11">
-        <v>11.4975540716186</v>
+        <v>29.595114</v>
       </c>
       <c r="O11">
-        <v>0.274562014763891</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="P11">
-        <v>0.274562014763891</v>
+        <v>0.1216568086527629</v>
       </c>
       <c r="Q11">
-        <v>1098.76035169005</v>
+        <v>4.545842393859999</v>
       </c>
       <c r="R11">
-        <v>1098.76035169005</v>
+        <v>40.91258154473999</v>
       </c>
       <c r="S11">
-        <v>0.09071843681466187</v>
+        <v>0.000112113171763756</v>
       </c>
       <c r="T11">
-        <v>0.09071843681466187</v>
+        <v>0.000112113171763756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>95.5647040097259</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H12">
-        <v>95.5647040097259</v>
+        <v>1.38241</v>
       </c>
       <c r="I12">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J12">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.719960352205369</v>
+        <v>1.460025</v>
       </c>
       <c r="N12">
-        <v>9.719960352205369</v>
+        <v>4.380075</v>
       </c>
       <c r="O12">
-        <v>0.2321130112633554</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="P12">
-        <v>0.2321130112633554</v>
+        <v>0.01800519998536753</v>
       </c>
       <c r="Q12">
-        <v>928.8851340447773</v>
+        <v>0.6727843867499999</v>
       </c>
       <c r="R12">
-        <v>928.8851340447773</v>
+        <v>6.055059480749999</v>
       </c>
       <c r="S12">
-        <v>0.07669279949108571</v>
+        <v>1.65927423294647E-05</v>
       </c>
       <c r="T12">
-        <v>0.07669279949108571</v>
+        <v>1.65927423294647E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>95.5647040097259</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H13">
-        <v>95.5647040097259</v>
+        <v>1.38241</v>
       </c>
       <c r="I13">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J13">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.6584678802318</v>
+        <v>26.482795</v>
       </c>
       <c r="N13">
-        <v>20.6584678802318</v>
+        <v>79.448385</v>
       </c>
       <c r="O13">
-        <v>0.4933249739727535</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="P13">
-        <v>0.4933249739727535</v>
+        <v>0.3265889420705065</v>
       </c>
       <c r="Q13">
-        <v>1974.220368268782</v>
+        <v>12.20336021198333</v>
       </c>
       <c r="R13">
-        <v>1974.220368268782</v>
+        <v>109.83024190785</v>
       </c>
       <c r="S13">
-        <v>0.1630002260834507</v>
+        <v>0.0003009689516268805</v>
       </c>
       <c r="T13">
-        <v>0.1630002260834507</v>
+        <v>0.0003009689516268805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H14">
+        <v>363.090694</v>
+      </c>
+      <c r="I14">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J14">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.28121633333333</v>
+      </c>
+      <c r="N14">
+        <v>129.843649</v>
+      </c>
+      <c r="O14">
+        <v>0.533749049291363</v>
+      </c>
+      <c r="P14">
+        <v>0.533749049291363</v>
+      </c>
+      <c r="Q14">
+        <v>5238.335625211378</v>
+      </c>
+      <c r="R14">
+        <v>47145.02062690241</v>
+      </c>
+      <c r="S14">
+        <v>0.1291919892556689</v>
+      </c>
+      <c r="T14">
+        <v>0.1291919892556689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H15">
+        <v>363.090694</v>
+      </c>
+      <c r="I15">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J15">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.865038</v>
+      </c>
+      <c r="N15">
+        <v>29.595114</v>
+      </c>
+      <c r="O15">
+        <v>0.1216568086527629</v>
+      </c>
+      <c r="P15">
+        <v>0.1216568086527629</v>
+      </c>
+      <c r="Q15">
+        <v>1193.967831252124</v>
+      </c>
+      <c r="R15">
+        <v>10745.71048126912</v>
+      </c>
+      <c r="S15">
+        <v>0.02944658194185761</v>
+      </c>
+      <c r="T15">
+        <v>0.0294465819418576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H16">
+        <v>363.090694</v>
+      </c>
+      <c r="I16">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J16">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.460025</v>
+      </c>
+      <c r="N16">
+        <v>4.380075</v>
+      </c>
+      <c r="O16">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="P16">
+        <v>0.01800519998536753</v>
+      </c>
+      <c r="Q16">
+        <v>176.70716350245</v>
+      </c>
+      <c r="R16">
+        <v>1590.36447152205</v>
+      </c>
+      <c r="S16">
+        <v>0.004358092264790125</v>
+      </c>
+      <c r="T16">
+        <v>0.004358092264790125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H17">
+        <v>363.090694</v>
+      </c>
+      <c r="I17">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J17">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.482795</v>
+      </c>
+      <c r="N17">
+        <v>79.448385</v>
+      </c>
+      <c r="O17">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="P17">
+        <v>0.3265889420705065</v>
+      </c>
+      <c r="Q17">
+        <v>3205.218805203243</v>
+      </c>
+      <c r="R17">
+        <v>28846.96924682919</v>
+      </c>
+      <c r="S17">
+        <v>0.07904964917691314</v>
+      </c>
+      <c r="T17">
+        <v>0.07904964917691312</v>
       </c>
     </row>
   </sheetData>
